--- a/biology/Botanique/Trochetia/Trochetia.xlsx
+++ b/biology/Botanique/Trochetia/Trochetia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trochetia est un genre de la famille des Sterculiaceae, ou des Malvaceae selon la classification phylogénétique.
 Il est endémique des îles Mascareignes, dans l'océan Indien. C'est Augustin Pyrame de Candolle qui l'a décrit en 1823.
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (28 janv. 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 janv. 2015) :
 Trochetia blackburniana
 Trochetia boutoniana  - Boucle d'oreille - endémique de l'île Maurice
 Trochetia granulata
